--- a/Code/Results/Cases/Case_0_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.217410620697231</v>
+        <v>4.921146876822121</v>
       </c>
       <c r="D2">
-        <v>4.621055775130587</v>
+        <v>4.184443087938103</v>
       </c>
       <c r="E2">
-        <v>10.48055592157463</v>
+        <v>11.28924422235743</v>
       </c>
       <c r="F2">
-        <v>14.74244646418595</v>
+        <v>20.02847268923449</v>
       </c>
       <c r="G2">
-        <v>17.17291159646106</v>
+        <v>21.4513911209307</v>
       </c>
       <c r="H2">
-        <v>7.115488871601096</v>
+        <v>12.4387210588638</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.20501022434054</v>
+        <v>12.88947024689801</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.96769156867613</v>
+        <v>14.86705293742426</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.17223733226518</v>
+        <v>17.95422174426258</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.719563455970595</v>
+        <v>4.749573566289603</v>
       </c>
       <c r="D3">
-        <v>4.420889475730303</v>
+        <v>4.10821793630031</v>
       </c>
       <c r="E3">
-        <v>9.983651899425961</v>
+        <v>11.25935867968669</v>
       </c>
       <c r="F3">
-        <v>14.38850234115127</v>
+        <v>20.09163125322174</v>
       </c>
       <c r="G3">
-        <v>16.66482895979595</v>
+        <v>21.54693890887307</v>
       </c>
       <c r="H3">
-        <v>7.202463598501973</v>
+        <v>12.50400563466551</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.933685636647</v>
+        <v>12.19861119684065</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.75144593135348</v>
+        <v>14.50454833575457</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.18085973275191</v>
+        <v>18.06137919034512</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.396635343622646</v>
+        <v>4.642468123253209</v>
       </c>
       <c r="D4">
-        <v>4.293032114804973</v>
+        <v>4.060327656645395</v>
       </c>
       <c r="E4">
-        <v>9.685201870877187</v>
+        <v>11.24675143300196</v>
       </c>
       <c r="F4">
-        <v>14.19181649670399</v>
+        <v>20.13857339558845</v>
       </c>
       <c r="G4">
-        <v>16.38913735211769</v>
+        <v>21.61818501749705</v>
       </c>
       <c r="H4">
-        <v>7.26396832012467</v>
+        <v>12.54695275279085</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.11097860394515</v>
+        <v>11.75194073444604</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.96392977720523</v>
+        <v>14.27958291742195</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.20625200247574</v>
+        <v>18.13318278806957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.260668795155262</v>
+        <v>4.598458201387086</v>
       </c>
       <c r="D5">
-        <v>4.239728362212798</v>
+        <v>4.040554756660768</v>
       </c>
       <c r="E5">
-        <v>9.565420300380808</v>
+        <v>11.24305638579636</v>
       </c>
       <c r="F5">
-        <v>14.11683237248091</v>
+        <v>20.15974247355056</v>
       </c>
       <c r="G5">
-        <v>16.28586111903905</v>
+        <v>21.65034865987659</v>
       </c>
       <c r="H5">
-        <v>7.290958857342201</v>
+        <v>12.56517274059843</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.76520666647667</v>
+        <v>11.56437657168098</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.63274236027425</v>
+        <v>14.18743915059363</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.22137298110819</v>
+        <v>18.16394664344131</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.237826702239915</v>
+        <v>4.591130852377912</v>
       </c>
       <c r="D6">
-        <v>4.230806246099339</v>
+        <v>4.037256435341947</v>
       </c>
       <c r="E6">
-        <v>9.545646847783448</v>
+        <v>11.24252985518763</v>
       </c>
       <c r="F6">
-        <v>14.10469212904274</v>
+        <v>20.16338038768605</v>
       </c>
       <c r="G6">
-        <v>16.26925700027583</v>
+        <v>21.65587746682826</v>
       </c>
       <c r="H6">
-        <v>7.295553890144635</v>
+        <v>12.56824153360977</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.70715944280416</v>
+        <v>11.53290063544033</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.57712835634531</v>
+        <v>14.17211440480594</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.22416381482246</v>
+        <v>18.16914553260619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.394819392190366</v>
+        <v>4.641875953508104</v>
       </c>
       <c r="D7">
-        <v>4.292318039099823</v>
+        <v>4.060062011876173</v>
       </c>
       <c r="E7">
-        <v>9.683578778396189</v>
+        <v>11.2466957635785</v>
       </c>
       <c r="F7">
-        <v>14.19078436588281</v>
+        <v>20.13885064784055</v>
       </c>
       <c r="G7">
-        <v>16.38770793118998</v>
+        <v>21.6186061583319</v>
       </c>
       <c r="H7">
-        <v>7.264324663274759</v>
+        <v>12.54719556531192</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.1063578424084</v>
+        <v>11.74943345611115</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.95950486487511</v>
+        <v>14.27834195347625</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.20643697626815</v>
+        <v>18.13359160339798</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.049312275093889</v>
+        <v>4.862398616130411</v>
       </c>
       <c r="D8">
-        <v>4.553091502540914</v>
+        <v>4.158395977699633</v>
       </c>
       <c r="E8">
-        <v>10.30793863124207</v>
+        <v>11.2777476902326</v>
       </c>
       <c r="F8">
-        <v>14.61611885669174</v>
+        <v>20.04854826246812</v>
       </c>
       <c r="G8">
-        <v>16.99018876614127</v>
+        <v>21.48170600962083</v>
       </c>
       <c r="H8">
-        <v>7.143727756075011</v>
+        <v>12.46063653054127</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.77543368740714</v>
+        <v>12.65598718748811</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.55676525155023</v>
+        <v>14.74263362707237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.17087243467678</v>
+        <v>17.98991801678979</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.197469553858026</v>
+        <v>5.277763720310685</v>
       </c>
       <c r="D9">
-        <v>5.023534999997384</v>
+        <v>4.341918405540331</v>
       </c>
       <c r="E9">
-        <v>11.57865921615083</v>
+        <v>11.38414689773185</v>
       </c>
       <c r="F9">
-        <v>15.61356830381657</v>
+        <v>19.93675277740873</v>
       </c>
       <c r="G9">
-        <v>18.45818227997394</v>
+        <v>21.31441541995118</v>
       </c>
       <c r="H9">
-        <v>6.976806035400565</v>
+        <v>12.31365010593656</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.71247686863291</v>
+        <v>14.25158014306361</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.36765882395587</v>
+        <v>15.62871573817899</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.2726343511872</v>
+        <v>17.75618727669348</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.960755376118172</v>
+        <v>5.568801947326789</v>
       </c>
       <c r="D10">
-        <v>5.342490769916615</v>
+        <v>4.470220568267966</v>
       </c>
       <c r="E10">
-        <v>12.79988983779913</v>
+        <v>11.48980144585261</v>
       </c>
       <c r="F10">
-        <v>16.4440368949072</v>
+        <v>19.89505392338454</v>
       </c>
       <c r="G10">
-        <v>19.70599269771054</v>
+        <v>21.25485924127613</v>
       </c>
       <c r="H10">
-        <v>6.904313887265766</v>
+        <v>12.21959525839431</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.66463483067135</v>
+        <v>15.30896818871485</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.24049897900309</v>
+        <v>16.25803116902561</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.46729554814777</v>
+        <v>17.61419619010441</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.291066743447047</v>
+        <v>5.697477611171164</v>
       </c>
       <c r="D11">
-        <v>5.48154476667484</v>
+        <v>4.527004778738521</v>
       </c>
       <c r="E11">
-        <v>13.35156074190249</v>
+        <v>11.54372428658055</v>
       </c>
       <c r="F11">
-        <v>16.8423493220905</v>
+        <v>19.88497496107278</v>
       </c>
       <c r="G11">
-        <v>20.3085991239522</v>
+        <v>21.24182081017199</v>
       </c>
       <c r="H11">
-        <v>6.884022215103548</v>
+        <v>12.17984779338031</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.50826259946143</v>
+        <v>15.7645190269161</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.05173773749547</v>
+        <v>16.53832155787024</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.58476512485283</v>
+        <v>17.55615495136856</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.413757804210142</v>
+        <v>5.74562238840886</v>
       </c>
       <c r="D12">
-        <v>5.533317045913894</v>
+        <v>4.548267359434355</v>
       </c>
       <c r="E12">
-        <v>13.55849805146411</v>
+        <v>11.56497311976842</v>
       </c>
       <c r="F12">
-        <v>16.99606680935221</v>
+        <v>19.88244364447642</v>
       </c>
       <c r="G12">
-        <v>20.54165532731657</v>
+        <v>21.23892424447041</v>
       </c>
       <c r="H12">
-        <v>6.878318705304252</v>
+        <v>12.16523473478668</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.82136900858589</v>
+        <v>15.93333177662954</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.35316993409159</v>
+        <v>16.64350204378604</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.63360939047613</v>
+        <v>17.53512641153859</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.387439740896136</v>
+        <v>5.735280120216182</v>
       </c>
       <c r="D13">
-        <v>5.522206504490797</v>
+        <v>4.543698970908634</v>
       </c>
       <c r="E13">
-        <v>13.51401609648726</v>
+        <v>11.5603601504369</v>
       </c>
       <c r="F13">
-        <v>16.96283370013172</v>
+        <v>19.88293154567987</v>
       </c>
       <c r="G13">
-        <v>20.4912487988106</v>
+        <v>21.239457026602</v>
       </c>
       <c r="H13">
-        <v>6.879456432809929</v>
+        <v>12.16836239416464</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.75421806201012</v>
+        <v>15.89713968383784</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.2885060370065</v>
+        <v>16.62089369450294</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.62289299167915</v>
+        <v>17.53961288131649</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.301208281687053</v>
+        <v>5.701450423106205</v>
       </c>
       <c r="D14">
-        <v>5.485821905210416</v>
+        <v>4.52875895291756</v>
       </c>
       <c r="E14">
-        <v>13.36862439012738</v>
+        <v>11.54545590223829</v>
       </c>
       <c r="F14">
-        <v>16.85493829805025</v>
+        <v>19.88474091250562</v>
       </c>
       <c r="G14">
-        <v>20.32767627153736</v>
+        <v>21.24154150559988</v>
       </c>
       <c r="H14">
-        <v>6.883512378433802</v>
+        <v>12.17863677244339</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.53414924081225</v>
+        <v>15.77848155676841</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.0766517606025</v>
+        <v>16.54699458235109</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.58869510025411</v>
+        <v>17.55440582529646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.248078936735411</v>
+        <v>5.680651673556384</v>
       </c>
       <c r="D15">
-        <v>5.463419705671233</v>
+        <v>4.51957608573733</v>
       </c>
       <c r="E15">
-        <v>13.27931480796383</v>
+        <v>11.53643420185607</v>
       </c>
       <c r="F15">
-        <v>16.78922306399275</v>
+        <v>19.88601677777746</v>
       </c>
       <c r="G15">
-        <v>20.22811179241753</v>
+        <v>21.24308461339414</v>
       </c>
       <c r="H15">
-        <v>6.886259408453413</v>
+        <v>12.18498726939111</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.39852395988728</v>
+        <v>15.70531805600966</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.9461367941458</v>
+        <v>16.50160151849035</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.56832142161368</v>
+        <v>17.56359095009724</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.938831929581047</v>
+        <v>5.560313696660612</v>
       </c>
       <c r="D16">
-        <v>5.333280265561519</v>
+        <v>4.466476639950033</v>
       </c>
       <c r="E16">
-        <v>12.76355534492091</v>
+        <v>11.48639430290705</v>
       </c>
       <c r="F16">
-        <v>16.4184135630882</v>
+        <v>19.89589212777232</v>
       </c>
       <c r="G16">
-        <v>19.66730025463782</v>
+        <v>21.25599591050799</v>
       </c>
       <c r="H16">
-        <v>6.90590850734454</v>
+        <v>12.2222541198411</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.60861024926484</v>
+        <v>15.27868149804437</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.18667058036922</v>
+        <v>16.23958444907774</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.46021845293253</v>
+        <v>17.61812186487442</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.744816248249549</v>
+        <v>5.485502372130129</v>
       </c>
       <c r="D17">
-        <v>5.251884215159673</v>
+        <v>4.433487374701892</v>
       </c>
       <c r="E17">
-        <v>12.44353166435204</v>
+        <v>11.45718868465502</v>
       </c>
       <c r="F17">
-        <v>16.1961436988732</v>
+        <v>19.90423271332833</v>
       </c>
       <c r="G17">
-        <v>19.33209719134514</v>
+        <v>21.26753133435017</v>
       </c>
       <c r="H17">
-        <v>6.921321211750642</v>
+        <v>12.2458954300064</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.11266451830608</v>
+        <v>15.01040628390424</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.71039273284986</v>
+        <v>16.07723925039725</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.40145966272413</v>
+        <v>17.65325870626202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.631629236709088</v>
+        <v>5.442125260528529</v>
       </c>
       <c r="D18">
-        <v>5.20449945893401</v>
+        <v>4.414364727357792</v>
       </c>
       <c r="E18">
-        <v>12.25809986572223</v>
+        <v>11.4409429109063</v>
       </c>
       <c r="F18">
-        <v>16.07023623885</v>
+        <v>19.90986644198566</v>
       </c>
       <c r="G18">
-        <v>19.14259898273573</v>
+        <v>21.27548805239417</v>
       </c>
       <c r="H18">
-        <v>6.931370484591193</v>
+        <v>12.25977919731177</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.82322608302963</v>
+        <v>14.85370641201152</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.43261101623174</v>
+        <v>15.98330430346351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.37037444809063</v>
+        <v>17.6740846230466</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.593031008995975</v>
+        <v>5.427380340820759</v>
       </c>
       <c r="D19">
-        <v>5.188358807130371</v>
+        <v>4.407865102232456</v>
       </c>
       <c r="E19">
-        <v>12.1950790606353</v>
+        <v>11.43553763221476</v>
       </c>
       <c r="F19">
-        <v>16.02794076035229</v>
+        <v>19.91191734972039</v>
       </c>
       <c r="G19">
-        <v>19.07901040149599</v>
+        <v>21.27840842848144</v>
       </c>
       <c r="H19">
-        <v>6.934971719912316</v>
+        <v>12.26452906271184</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.72450795804918</v>
+        <v>14.80024033202237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.33789691737745</v>
+        <v>15.95140678375953</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.3603085907394</v>
+        <v>17.68124148673131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.765634262927357</v>
+        <v>5.493502501467937</v>
       </c>
       <c r="D20">
-        <v>5.260607866877868</v>
+        <v>4.437014562402567</v>
       </c>
       <c r="E20">
-        <v>12.47773909046944</v>
+        <v>11.46024057665422</v>
       </c>
       <c r="F20">
-        <v>16.21960479869699</v>
+        <v>19.90325821972947</v>
       </c>
       <c r="G20">
-        <v>19.36743964566389</v>
+        <v>21.266166407851</v>
       </c>
       <c r="H20">
-        <v>6.919556816798798</v>
+        <v>12.24334917068419</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.165891592315</v>
+        <v>15.03921278710594</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.76149005481565</v>
+        <v>16.09457969120828</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.40743247640924</v>
+        <v>17.64945450107495</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.326601097211178</v>
+        <v>5.711403165548816</v>
       </c>
       <c r="D21">
-        <v>5.496533053774787</v>
+        <v>4.533153821391836</v>
       </c>
       <c r="E21">
-        <v>13.41138196398166</v>
+        <v>11.54981124814595</v>
       </c>
       <c r="F21">
-        <v>16.88655200362726</v>
+        <v>19.88417452449428</v>
       </c>
       <c r="G21">
-        <v>20.37559080802009</v>
+        <v>21.24087371541059</v>
       </c>
       <c r="H21">
-        <v>6.882266027895911</v>
+        <v>12.1756070270797</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.59896101570767</v>
+        <v>15.8134348152628</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.13903422680655</v>
+        <v>16.56872732476323</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.59862000419299</v>
+        <v>17.55003491868835</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.679311046582368</v>
+        <v>5.850404076684443</v>
       </c>
       <c r="D22">
-        <v>5.645563975739726</v>
+        <v>4.594579893008486</v>
       </c>
       <c r="E22">
-        <v>14.01016021023285</v>
+        <v>11.61317759899581</v>
       </c>
       <c r="F22">
-        <v>17.33923060355681</v>
+        <v>19.87919655496014</v>
       </c>
       <c r="G22">
-        <v>21.06274912700431</v>
+        <v>21.23624561448777</v>
       </c>
       <c r="H22">
-        <v>6.869514038350337</v>
+        <v>12.13388993076332</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.49852315529676</v>
+        <v>16.2978897138324</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.00577729161222</v>
+        <v>16.87297806500218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.74906739012681</v>
+        <v>17.49060206609861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.492322193812363</v>
+        <v>5.776542803046239</v>
       </c>
       <c r="D23">
-        <v>5.56649969142338</v>
+        <v>4.561928418937288</v>
       </c>
       <c r="E23">
-        <v>13.69158588834856</v>
+        <v>11.57892111601185</v>
       </c>
       <c r="F23">
-        <v>17.09611208433182</v>
+        <v>19.8811657225244</v>
       </c>
       <c r="G23">
-        <v>20.69346470088159</v>
+        <v>21.23762100374553</v>
       </c>
       <c r="H23">
-        <v>6.875203930312502</v>
+        <v>12.15592072105041</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.02178514506958</v>
+        <v>16.04130717223917</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.54621879458497</v>
+        <v>16.71113948813147</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.66637772283731</v>
+        <v>17.52181251416703</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.756227564802344</v>
+        <v>5.48988678276834</v>
       </c>
       <c r="D24">
-        <v>5.256665737552216</v>
+        <v>4.435420407862408</v>
       </c>
       <c r="E24">
-        <v>12.46227842429405</v>
+        <v>11.45885911790796</v>
       </c>
       <c r="F24">
-        <v>16.20899217937218</v>
+        <v>19.90369617658087</v>
       </c>
       <c r="G24">
-        <v>19.35145129674694</v>
+        <v>21.26677936582917</v>
       </c>
       <c r="H24">
-        <v>6.92035081024625</v>
+        <v>12.24449942485137</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.14184106717784</v>
+        <v>15.02619704200827</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.73840130684549</v>
+        <v>16.08674194088127</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.40472378561043</v>
+        <v>17.65117243513028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.901122700541947</v>
+        <v>5.167634243982848</v>
       </c>
       <c r="D25">
-        <v>4.900849882110321</v>
+        <v>4.293358862196595</v>
       </c>
       <c r="E25">
-        <v>11.2307386140314</v>
+        <v>11.35050770853263</v>
       </c>
       <c r="F25">
-        <v>15.32637603533533</v>
+        <v>19.95993651252366</v>
       </c>
       <c r="G25">
-        <v>18.03077024238987</v>
+        <v>21.34865730822322</v>
       </c>
       <c r="H25">
-        <v>7.013743046041703</v>
+        <v>12.35097125594621</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.95406453929872</v>
+        <v>13.83988604257179</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.6413132962207</v>
+        <v>15.39235131165976</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.22509571401822</v>
+        <v>17.81422986130668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.921146876822121</v>
+        <v>7.217410620697176</v>
       </c>
       <c r="D2">
-        <v>4.184443087938103</v>
+        <v>4.621055775130502</v>
       </c>
       <c r="E2">
-        <v>11.28924422235743</v>
+        <v>10.48055592157461</v>
       </c>
       <c r="F2">
-        <v>20.02847268923449</v>
+        <v>14.74244646418595</v>
       </c>
       <c r="G2">
-        <v>21.4513911209307</v>
+        <v>17.17291159646097</v>
       </c>
       <c r="H2">
-        <v>12.4387210588638</v>
+        <v>7.1154888716011</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.88947024689801</v>
+        <v>21.20501022434057</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.86705293742426</v>
+        <v>18.96769156867614</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.95422174426258</v>
+        <v>11.17223733226513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749573566289603</v>
+        <v>6.719563455970556</v>
       </c>
       <c r="D3">
-        <v>4.10821793630031</v>
+        <v>4.420889475730331</v>
       </c>
       <c r="E3">
-        <v>11.25935867968669</v>
+        <v>9.983651899425983</v>
       </c>
       <c r="F3">
-        <v>20.09163125322174</v>
+        <v>14.38850234115113</v>
       </c>
       <c r="G3">
-        <v>21.54693890887307</v>
+        <v>16.66482895979573</v>
       </c>
       <c r="H3">
-        <v>12.50400563466551</v>
+        <v>7.202463598501915</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.19861119684065</v>
+        <v>19.93368563664703</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.50454833575457</v>
+        <v>17.75144593135352</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.06137919034512</v>
+        <v>11.18085973275175</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.642468123253209</v>
+        <v>6.396635343622775</v>
       </c>
       <c r="D4">
-        <v>4.060327656645395</v>
+        <v>4.293032114804886</v>
       </c>
       <c r="E4">
-        <v>11.24675143300196</v>
+        <v>9.685201870877194</v>
       </c>
       <c r="F4">
-        <v>20.13857339558845</v>
+        <v>14.19181649670401</v>
       </c>
       <c r="G4">
-        <v>21.61818501749705</v>
+        <v>16.38913735211769</v>
       </c>
       <c r="H4">
-        <v>12.54695275279085</v>
+        <v>7.263968320124663</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.75194073444604</v>
+        <v>19.11097860394514</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.27958291742195</v>
+        <v>16.96392977720522</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.13318278806957</v>
+        <v>11.20625200247573</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.598458201387086</v>
+        <v>6.2606687951553</v>
       </c>
       <c r="D5">
-        <v>4.040554756660768</v>
+        <v>4.239728362212846</v>
       </c>
       <c r="E5">
-        <v>11.24305638579636</v>
+        <v>9.565420300380705</v>
       </c>
       <c r="F5">
-        <v>20.15974247355056</v>
+        <v>14.11683237248093</v>
       </c>
       <c r="G5">
-        <v>21.65034865987659</v>
+        <v>16.28586111903914</v>
       </c>
       <c r="H5">
-        <v>12.56517274059843</v>
+        <v>7.29095885734226</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.56437657168098</v>
+        <v>18.76520666647667</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.18743915059363</v>
+        <v>16.6327423602743</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.16394664344131</v>
+        <v>11.22137298110825</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.591130852377912</v>
+        <v>6.23782670223993</v>
       </c>
       <c r="D6">
-        <v>4.037256435341947</v>
+        <v>4.230806246099346</v>
       </c>
       <c r="E6">
-        <v>11.24252985518763</v>
+        <v>9.54564684778342</v>
       </c>
       <c r="F6">
-        <v>20.16338038768605</v>
+        <v>14.10469212904275</v>
       </c>
       <c r="G6">
-        <v>21.65587746682826</v>
+        <v>16.26925700027584</v>
       </c>
       <c r="H6">
-        <v>12.56824153360977</v>
+        <v>7.295553890144635</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.53290063544033</v>
+        <v>18.70715944280416</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.17211440480594</v>
+        <v>16.57712835634532</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.16914553260619</v>
+        <v>11.22416381482247</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.641875953508104</v>
+        <v>6.394819392190436</v>
       </c>
       <c r="D7">
-        <v>4.060062011876173</v>
+        <v>4.292318039099823</v>
       </c>
       <c r="E7">
-        <v>11.2466957635785</v>
+        <v>9.683578778396186</v>
       </c>
       <c r="F7">
-        <v>20.13885064784055</v>
+        <v>14.19078436588275</v>
       </c>
       <c r="G7">
-        <v>21.6186061583319</v>
+        <v>16.38770793118982</v>
       </c>
       <c r="H7">
-        <v>12.54719556531192</v>
+        <v>7.264324663274762</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.74943345611115</v>
+        <v>19.10635784240845</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.27834195347625</v>
+        <v>16.95950486487519</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.13359160339798</v>
+        <v>11.20643697626806</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.862398616130411</v>
+        <v>7.049312275093866</v>
       </c>
       <c r="D8">
-        <v>4.158395977699633</v>
+        <v>4.553091502540861</v>
       </c>
       <c r="E8">
-        <v>11.2777476902326</v>
+        <v>10.30793863124208</v>
       </c>
       <c r="F8">
-        <v>20.04854826246812</v>
+        <v>14.61611885669179</v>
       </c>
       <c r="G8">
-        <v>21.48170600962083</v>
+        <v>16.99018876614129</v>
       </c>
       <c r="H8">
-        <v>12.46063653054127</v>
+        <v>7.143727756075082</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.65598718748811</v>
+        <v>20.77543368740712</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.74263362707237</v>
+        <v>18.55676525155021</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.98991801678979</v>
+        <v>11.1708724346768</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.277763720310685</v>
+        <v>8.197469553858099</v>
       </c>
       <c r="D9">
-        <v>4.341918405540331</v>
+        <v>5.023534999997473</v>
       </c>
       <c r="E9">
-        <v>11.38414689773185</v>
+        <v>11.57865921615084</v>
       </c>
       <c r="F9">
-        <v>19.93675277740873</v>
+        <v>15.61356830381655</v>
       </c>
       <c r="G9">
-        <v>21.31441541995118</v>
+        <v>18.45818227997394</v>
       </c>
       <c r="H9">
-        <v>12.31365010593656</v>
+        <v>6.976806035400569</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.25158014306361</v>
+        <v>23.71247686863289</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.62871573817899</v>
+        <v>21.36765882395587</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.75618727669348</v>
+        <v>11.27263435118718</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.568801947326789</v>
+        <v>8.960755376118172</v>
       </c>
       <c r="D10">
-        <v>4.470220568267966</v>
+        <v>5.342490769916692</v>
       </c>
       <c r="E10">
-        <v>11.48980144585261</v>
+        <v>12.79988983779916</v>
       </c>
       <c r="F10">
-        <v>19.89505392338454</v>
+        <v>16.44403689490717</v>
       </c>
       <c r="G10">
-        <v>21.25485924127613</v>
+        <v>19.7059926977105</v>
       </c>
       <c r="H10">
-        <v>12.21959525839431</v>
+        <v>6.904313887265732</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.30896818871485</v>
+        <v>25.66463483067135</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.25803116902561</v>
+        <v>23.24049897900311</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.61419619010441</v>
+        <v>11.46729554814776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.697477611171164</v>
+        <v>9.291066743447022</v>
       </c>
       <c r="D11">
-        <v>4.527004778738521</v>
+        <v>5.481544766674865</v>
       </c>
       <c r="E11">
-        <v>11.54372428658055</v>
+        <v>13.35156074190251</v>
       </c>
       <c r="F11">
-        <v>19.88497496107278</v>
+        <v>16.8423493220905</v>
       </c>
       <c r="G11">
-        <v>21.24182081017199</v>
+        <v>20.30859912395219</v>
       </c>
       <c r="H11">
-        <v>12.17984779338031</v>
+        <v>6.884022215103548</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.7645190269161</v>
+        <v>26.50826259946141</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.53832155787024</v>
+        <v>24.05173773749547</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.55615495136856</v>
+        <v>11.58476512485284</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.74562238840886</v>
+        <v>9.413757804210185</v>
       </c>
       <c r="D12">
-        <v>4.548267359434355</v>
+        <v>5.53331704591387</v>
       </c>
       <c r="E12">
-        <v>11.56497311976842</v>
+        <v>13.5584980514641</v>
       </c>
       <c r="F12">
-        <v>19.88244364447642</v>
+        <v>16.99606680935222</v>
       </c>
       <c r="G12">
-        <v>21.23892424447041</v>
+        <v>20.5416553273166</v>
       </c>
       <c r="H12">
-        <v>12.16523473478668</v>
+        <v>6.878318705304228</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.93333177662954</v>
+        <v>26.8213690085859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.64350204378604</v>
+        <v>24.3531699340916</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.53512641153859</v>
+        <v>11.63360939047612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.735280120216182</v>
+        <v>9.387439740896179</v>
       </c>
       <c r="D13">
-        <v>4.543698970908634</v>
+        <v>5.52220650449082</v>
       </c>
       <c r="E13">
-        <v>11.5603601504369</v>
+        <v>13.51401609648728</v>
       </c>
       <c r="F13">
-        <v>19.88293154567987</v>
+        <v>16.96283370013179</v>
       </c>
       <c r="G13">
-        <v>21.239457026602</v>
+        <v>20.49124879881067</v>
       </c>
       <c r="H13">
-        <v>12.16836239416464</v>
+        <v>6.879456432809902</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.89713968383784</v>
+        <v>26.75421806201017</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.62089369450294</v>
+        <v>24.28850603700655</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.53961288131649</v>
+        <v>11.62289299167913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.701450423106205</v>
+        <v>9.301208281687039</v>
       </c>
       <c r="D14">
-        <v>4.52875895291756</v>
+        <v>5.485821905210376</v>
       </c>
       <c r="E14">
-        <v>11.54545590223829</v>
+        <v>13.36862439012733</v>
       </c>
       <c r="F14">
-        <v>19.88474091250562</v>
+        <v>16.85493829805025</v>
       </c>
       <c r="G14">
-        <v>21.24154150559988</v>
+        <v>20.3276762715373</v>
       </c>
       <c r="H14">
-        <v>12.17863677244339</v>
+        <v>6.88351237843377</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.77848155676841</v>
+        <v>26.53414924081224</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.54699458235109</v>
+        <v>24.07665176060248</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.55440582529646</v>
+        <v>11.58869510025408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.680651673556384</v>
+        <v>9.248078936735379</v>
       </c>
       <c r="D15">
-        <v>4.51957608573733</v>
+        <v>5.4634197056712</v>
       </c>
       <c r="E15">
-        <v>11.53643420185607</v>
+        <v>13.27931480796385</v>
       </c>
       <c r="F15">
-        <v>19.88601677777746</v>
+        <v>16.78922306399274</v>
       </c>
       <c r="G15">
-        <v>21.24308461339414</v>
+        <v>20.22811179241753</v>
       </c>
       <c r="H15">
-        <v>12.18498726939111</v>
+        <v>6.886259408453407</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.70531805600966</v>
+        <v>26.39852395988729</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.50160151849035</v>
+        <v>23.94613679414582</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.56359095009724</v>
+        <v>11.56832142161365</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.560313696660612</v>
+        <v>8.938831929581049</v>
       </c>
       <c r="D16">
-        <v>4.466476639950033</v>
+        <v>5.333280265561475</v>
       </c>
       <c r="E16">
-        <v>11.48639430290705</v>
+        <v>12.76355534492091</v>
       </c>
       <c r="F16">
-        <v>19.89589212777232</v>
+        <v>16.41841356308819</v>
       </c>
       <c r="G16">
-        <v>21.25599591050799</v>
+        <v>19.66730025463782</v>
       </c>
       <c r="H16">
-        <v>12.2222541198411</v>
+        <v>6.905908507344456</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.27868149804437</v>
+        <v>25.60861024926487</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.23958444907774</v>
+        <v>23.18667058036926</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.61812186487442</v>
+        <v>11.46021845293248</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.485502372130129</v>
+        <v>8.744816248249494</v>
       </c>
       <c r="D17">
-        <v>4.433487374701892</v>
+        <v>5.251884215159751</v>
       </c>
       <c r="E17">
-        <v>11.45718868465502</v>
+        <v>12.4435316643521</v>
       </c>
       <c r="F17">
-        <v>19.90423271332833</v>
+        <v>16.19614369887315</v>
       </c>
       <c r="G17">
-        <v>21.26753133435017</v>
+        <v>19.3320971913451</v>
       </c>
       <c r="H17">
-        <v>12.2458954300064</v>
+        <v>6.921321211750604</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.01040628390424</v>
+        <v>25.1126645183061</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.07723925039725</v>
+        <v>22.71039273284992</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.65325870626202</v>
+        <v>11.40145966272406</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.442125260528529</v>
+        <v>8.631629236709086</v>
       </c>
       <c r="D18">
-        <v>4.414364727357792</v>
+        <v>5.204499458934088</v>
       </c>
       <c r="E18">
-        <v>11.4409429109063</v>
+        <v>12.25809986572226</v>
       </c>
       <c r="F18">
-        <v>19.90986644198566</v>
+        <v>16.07023623885</v>
       </c>
       <c r="G18">
-        <v>21.27548805239417</v>
+        <v>19.14259898273573</v>
       </c>
       <c r="H18">
-        <v>12.25977919731177</v>
+        <v>6.931370484591187</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85370641201152</v>
+        <v>24.82322608302965</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.98330430346351</v>
+        <v>22.43261101623175</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.6740846230466</v>
+        <v>11.37037444809063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.427380340820759</v>
+        <v>8.59303100899599</v>
       </c>
       <c r="D19">
-        <v>4.407865102232456</v>
+        <v>5.188358807130364</v>
       </c>
       <c r="E19">
-        <v>11.43553763221476</v>
+        <v>12.19507906063529</v>
       </c>
       <c r="F19">
-        <v>19.91191734972039</v>
+        <v>16.02794076035225</v>
       </c>
       <c r="G19">
-        <v>21.27840842848144</v>
+        <v>19.07901040149596</v>
       </c>
       <c r="H19">
-        <v>12.26452906271184</v>
+        <v>6.934971719912316</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.80024033202237</v>
+        <v>24.7245079580492</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.95140678375953</v>
+        <v>22.33789691737744</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.68124148673131</v>
+        <v>11.36030859073938</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.493502501467937</v>
+        <v>8.765634262927462</v>
       </c>
       <c r="D20">
-        <v>4.437014562402567</v>
+        <v>5.260607866877938</v>
       </c>
       <c r="E20">
-        <v>11.46024057665422</v>
+        <v>12.47773909046943</v>
       </c>
       <c r="F20">
-        <v>19.90325821972947</v>
+        <v>16.21960479869701</v>
       </c>
       <c r="G20">
-        <v>21.266166407851</v>
+        <v>19.36743964566392</v>
       </c>
       <c r="H20">
-        <v>12.24334917068419</v>
+        <v>6.919556816798809</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.03921278710594</v>
+        <v>25.165891592315</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.09457969120828</v>
+        <v>22.76149005481565</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.64945450107495</v>
+        <v>11.40743247640927</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.711403165548816</v>
+        <v>9.326601097211134</v>
       </c>
       <c r="D21">
-        <v>4.533153821391836</v>
+        <v>5.496533053774706</v>
       </c>
       <c r="E21">
-        <v>11.54981124814595</v>
+        <v>13.41138196398163</v>
       </c>
       <c r="F21">
-        <v>19.88417452449428</v>
+        <v>16.88655200362727</v>
       </c>
       <c r="G21">
-        <v>21.24087371541059</v>
+        <v>20.37559080802013</v>
       </c>
       <c r="H21">
-        <v>12.1756070270797</v>
+        <v>6.882266027895822</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.8134348152628</v>
+        <v>26.59896101570767</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.56872732476323</v>
+        <v>24.13903422680655</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.55003491868835</v>
+        <v>11.598620004193</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.850404076684443</v>
+        <v>9.679311046582411</v>
       </c>
       <c r="D22">
-        <v>4.594579893008486</v>
+        <v>5.645563975739678</v>
       </c>
       <c r="E22">
-        <v>11.61317759899581</v>
+        <v>14.01016021023287</v>
       </c>
       <c r="F22">
-        <v>19.87919655496014</v>
+        <v>17.33923060355681</v>
       </c>
       <c r="G22">
-        <v>21.23624561448777</v>
+        <v>21.06274912700433</v>
       </c>
       <c r="H22">
-        <v>12.13388993076332</v>
+        <v>6.869514038350368</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.2978897138324</v>
+        <v>27.49852315529676</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.87297806500218</v>
+        <v>25.00577729161221</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.49060206609861</v>
+        <v>11.74906739012682</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.776542803046239</v>
+        <v>9.49232219381242</v>
       </c>
       <c r="D23">
-        <v>4.561928418937288</v>
+        <v>5.566499691423453</v>
       </c>
       <c r="E23">
-        <v>11.57892111601185</v>
+        <v>13.69158588834859</v>
       </c>
       <c r="F23">
-        <v>19.8811657225244</v>
+        <v>17.09611208433181</v>
       </c>
       <c r="G23">
-        <v>21.23762100374553</v>
+        <v>20.69346470088164</v>
       </c>
       <c r="H23">
-        <v>12.15592072105041</v>
+        <v>6.875203930312507</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.04130717223917</v>
+        <v>27.02178514506953</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.71113948813147</v>
+        <v>24.54621879458497</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.52181251416703</v>
+        <v>11.66637772283733</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.48988678276834</v>
+        <v>8.75622756480233</v>
       </c>
       <c r="D24">
-        <v>4.435420407862408</v>
+        <v>5.256665737552223</v>
       </c>
       <c r="E24">
-        <v>11.45885911790796</v>
+        <v>12.4622784242941</v>
       </c>
       <c r="F24">
-        <v>19.90369617658087</v>
+        <v>16.20899217937216</v>
       </c>
       <c r="G24">
-        <v>21.26677936582917</v>
+        <v>19.35145129674699</v>
       </c>
       <c r="H24">
-        <v>12.24449942485137</v>
+        <v>6.920350810246219</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.02619704200827</v>
+        <v>25.14184106717788</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.08674194088127</v>
+        <v>22.73840130684553</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.65117243513028</v>
+        <v>11.40472378561038</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.167634243982848</v>
+        <v>7.901122700542078</v>
       </c>
       <c r="D25">
-        <v>4.293358862196595</v>
+        <v>4.900849882110396</v>
       </c>
       <c r="E25">
-        <v>11.35050770853263</v>
+        <v>11.23073861403141</v>
       </c>
       <c r="F25">
-        <v>19.95993651252366</v>
+        <v>15.32637603533528</v>
       </c>
       <c r="G25">
-        <v>21.34865730822322</v>
+        <v>18.0307702423898</v>
       </c>
       <c r="H25">
-        <v>12.35097125594621</v>
+        <v>7.013743046041671</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.83988604257179</v>
+        <v>22.95406453929872</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.39235131165976</v>
+        <v>20.6413132962207</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.81422986130668</v>
+        <v>11.22509571401816</v>
       </c>
     </row>
   </sheetData>
